--- a/tarea2/ejercicios.xlsx
+++ b/tarea2/ejercicios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduuag-my.sharepoint.com/personal/eduardoa_rodriguez_edu_uag_mx/Documents/Pruebas y validacion/UAG_Pruebas_Validacion/tarea2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="11_AD4D2F04E46CFB4ACB3E208D7D97DC9C693EDF17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E9C86EB-965F-4D57-BE2E-F0AE9EFB82C9}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="11_AD4D2F04E46CFB4ACB3E208D7D97DC9C693EDF17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C972CE7E-9247-4D41-9A77-A16C66F7AE7A}"/>
   <bookViews>
-    <workbookView xWindow="18450" yWindow="4530" windowWidth="19575" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18450" yWindow="4530" windowWidth="28650" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -172,6 +172,8 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Énfasis5" xfId="2" builtinId="46"/>
@@ -270,9 +272,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Bugs</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -384,9 +383,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Costo en $</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -1234,15 +1230,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>528637</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>490537</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1547,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O11"/>
+  <dimension ref="B2:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1918,22 +1914,41 @@
         <v>75312.5</v>
       </c>
       <c r="I11" s="4">
-        <f>(I10-J10)*1+10</f>
-        <v>153.125</v>
-      </c>
-      <c r="J11" s="1">
-        <v>153</v>
+        <f>(I10-J10)</f>
+        <v>143.125</v>
+      </c>
+      <c r="J11" s="4">
+        <f>I11</f>
+        <v>143.125</v>
       </c>
       <c r="K11" s="5">
         <f>J11*1000</f>
-        <v>153000</v>
-      </c>
+        <v>143125</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E12" s="9">
+        <f>SUM(E5:E11)</f>
+        <v>25167</v>
+      </c>
+      <c r="H12" s="9">
+        <f>SUM(H5:H11)</f>
+        <v>92587.5</v>
+      </c>
+      <c r="K12" s="9">
+        <f>SUM(K5:K11)</f>
+        <v>171250</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>